--- a/Conference_5/conference_5_dataset.xlsx
+++ b/Conference_5/conference_5_dataset.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Question 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Question 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,4002 +448,5138 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8680238867590709</v>
+        <v>-0.3767327770883562</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.016524679124462</v>
+        <v>-0.3421511315329502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3219608025006612</v>
+        <v>0.3245030506047192</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3832355012271707</v>
+        <v>0.4241920638287118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.02743374274214682</v>
+        <v>1.305014959513324</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.09246502611605453</v>
+        <v>1.421230637751711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.210354308102169</v>
+        <v>-1.178463849636811</v>
       </c>
       <c r="B5" t="n">
-        <v>1.231848033307233</v>
+        <v>-1.135498980763745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.15872833809251</v>
+        <v>0.4966119694834495</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.699625366988425</v>
+        <v>1.01033103789039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3494008957694957</v>
+        <v>-0.389124674689046</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1898584564977634</v>
+        <v>-1.069374930221926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.739444358027348</v>
+        <v>-0.2763941526901477</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.408193539309059</v>
+        <v>-0.812936367406378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09264405776831505</v>
+        <v>-0.6661330650906024</v>
       </c>
       <c r="B9" t="n">
-        <v>0.464918320032246</v>
+        <v>-0.5639209826981116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6574357021200784</v>
+        <v>0.4103467185170313</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7468899923319595</v>
+        <v>1.109793713994306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.211172789519764</v>
+        <v>-1.586993377702309</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.486587425765085</v>
+        <v>-1.90117679444545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.172325459478512</v>
+        <v>-0.9004528802707253</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7900816770570993</v>
+        <v>-0.8849167135038151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.244867455599014</v>
+        <v>-1.709627859533651</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.691499320553427</v>
+        <v>-2.454506477529959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2734297243907873</v>
+        <v>-1.679890595856962</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1466953964973684</v>
+        <v>-1.022786700443976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6214281496100459</v>
+        <v>-1.651743023494434</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6483451643603636</v>
+        <v>-2.17040479877141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5134113691391987</v>
+        <v>0.2885555832578</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.123778609811798</v>
+        <v>0.7313531022351589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.649095481053492e-05</v>
+        <v>0.5489883209202989</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1642558441317077</v>
+        <v>-0.04524881915998802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.3292415858247489</v>
+        <v>1.3331350244758</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2278958844167978</v>
+        <v>1.246102128191092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.222536999351617</v>
+        <v>-0.3373722359168945</v>
       </c>
       <c r="B19" t="n">
-        <v>1.50452806332665</v>
+        <v>-0.4788461248918197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7573378603135741</v>
+        <v>1.550875005551364</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6974670327572818</v>
+        <v>1.745610764930698</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4558596919724573</v>
+        <v>0.9388244775107437</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2635632279649772</v>
+        <v>1.256437789757536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.208265539911471</v>
+        <v>0.02018347595060232</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.545280925563438</v>
+        <v>0.1513881535660081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1335822397886186</v>
+        <v>1.459336310551038</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2859387791144098</v>
+        <v>1.904951550974432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.051177253680641</v>
+        <v>0.2237292889707185</v>
       </c>
       <c r="B24" t="n">
-        <v>1.403954703166181</v>
+        <v>-0.1046856508792447</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.006423693242971314</v>
+        <v>0.6982285549860142</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4225834694245495</v>
+        <v>0.6658006586009526</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1832627573600261</v>
+        <v>-1.221785127618845</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6919261291231082</v>
+        <v>-1.342604828410092</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.9769826616244607</v>
+        <v>0.7481469475779733</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5790916765077696</v>
+        <v>1.337191532392717</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.07410949146191825</v>
+        <v>-0.04418217165521159</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4515163469244864</v>
+        <v>-0.0179075318591922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.4522099871124751</v>
+        <v>1.909175633291821</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.077037571532828</v>
+        <v>1.420070468590962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.241535502288429</v>
+        <v>0.7222387682950139</v>
       </c>
       <c r="B30" t="n">
-        <v>2.209602223636701</v>
+        <v>0.1321099589567366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3966507944084183</v>
+        <v>1.345091223255731</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4582423145992859</v>
+        <v>1.746252431866747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.004451203206511573</v>
+        <v>0.5730898207812919</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3106034887265756</v>
+        <v>0.6255843106728181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.1644641909796313</v>
+        <v>-0.05447317921140252</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002239524121005809</v>
+        <v>0.03284688536635274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.711852598442385</v>
+        <v>0.718538476247242</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.406440063450981</v>
+        <v>1.148851750864468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02018432199625127</v>
+        <v>-0.578040832263765</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8588895429290216</v>
+        <v>-0.5935509960138454</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.7040595450642341</v>
+        <v>-0.6239044441194116</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9265681056194572</v>
+        <v>-0.8328083260732362</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2516302779542242</v>
+        <v>-1.585424241049548</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.332109051676668</v>
+        <v>-0.9610407166476891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.5301590626572673</v>
+        <v>-0.6979624211964727</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2829303114452748</v>
+        <v>-0.4026645521227549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.547664418699477</v>
+        <v>0.08310558185890862</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.7336398786934291</v>
+        <v>0.5886193520229095</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.3113260362243603</v>
+        <v>1.04820593445838</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.3407250192890909</v>
+        <v>1.621055007169387</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7356811909810805</v>
+        <v>-0.8746638978499433</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8475408050068387</v>
+        <v>-0.5550656257873314</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.583957293753173</v>
+        <v>-2.225028551886937</v>
       </c>
       <c r="B42" t="n">
-        <v>2.87184001221143</v>
+        <v>-2.62478175887139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.3519127778121086</v>
+        <v>0.09128546386071586</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.8575110835770688</v>
+        <v>0.09116597073533457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.578920168260252</v>
+        <v>1.122831155056987</v>
       </c>
       <c r="B44" t="n">
-        <v>1.894463622921007</v>
+        <v>1.442321175607922</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.05308848706305389</v>
+        <v>0.5157621604289659</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1715033345472188</v>
+        <v>0.5553779483172526</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.5685376173867885</v>
+        <v>0.94094147017251</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2859028620491436</v>
+        <v>1.128543795272721</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7480919967050297</v>
+        <v>-1.741830099888219</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5213138729988586</v>
+        <v>-1.723369153198113</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.470661380583209</v>
+        <v>0.2095350585756604</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4449621394878609</v>
+        <v>0.9421148000605022</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.4508444713772728</v>
+        <v>1.198694731151245</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.7488353325949855</v>
+        <v>2.046567823043581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.4025774947887809</v>
+        <v>0.04984267823288063</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.7893882432286283</v>
+        <v>-1.028010092436904</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4496514819385419</v>
+        <v>-0.4251260619712879</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6732260344502844</v>
+        <v>-0.2967363779881087</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1.387299047987464</v>
+        <v>0.3738172843496806</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.493302998637675</v>
+        <v>-0.1001347766276426</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.2805006832048823</v>
+        <v>-0.689582620137818</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.4319306219327749</v>
+        <v>-0.8460224513800506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.405154380089434</v>
+        <v>-0.981818084401811</v>
       </c>
       <c r="B54" t="n">
-        <v>1.21530396629671</v>
+        <v>-0.2576094547641777</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1092512264912133</v>
+        <v>-0.9735155617063249</v>
       </c>
       <c r="B55" t="n">
-        <v>0.371088273243989</v>
+        <v>-1.475507389989738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.5588622819450367</v>
+        <v>-0.5106141816730164</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.6368067025199584</v>
+        <v>0.2452081660159444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.473539508790241</v>
+        <v>0.5634262692329248</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.848179674018175</v>
+        <v>0.921921878916274</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.9705973532436403</v>
+        <v>-0.2685510160531765</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.7309875455728243</v>
+        <v>-0.4725299365947832</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.42346850278817</v>
+        <v>-0.5940475150594504</v>
       </c>
       <c r="B59" t="n">
-        <v>4.166531075319246</v>
+        <v>-0.2095143383902451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4018150694181029</v>
+        <v>-0.1695541617871051</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4166410052825306</v>
+        <v>0.6909116102492046</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.810712404171576</v>
+        <v>0.2580542908236758</v>
       </c>
       <c r="B61" t="n">
-        <v>2.047150524645455</v>
+        <v>0.9331587353228887</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.379211541898322</v>
+        <v>-0.8806567219233647</v>
       </c>
       <c r="B62" t="n">
-        <v>1.032848254572616</v>
+        <v>-1.064779270953855</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.2085001570127276</v>
+        <v>0.9657596188331734</v>
       </c>
       <c r="B63" t="n">
-        <v>1.194631702570707</v>
+        <v>0.628754624822804</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.8699381946205897</v>
+        <v>0.6014876293735715</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.039181606201969</v>
+        <v>0.4131249127618497</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.381180978864363</v>
+        <v>-0.7990241121804295</v>
       </c>
       <c r="B65" t="n">
-        <v>1.587614105859389</v>
+        <v>-0.7853479114358436</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.373369113666788</v>
+        <v>-1.296381249979077</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.9283930398374556</v>
+        <v>-1.578914607033251</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.890322749149326</v>
+        <v>-1.403090112673968</v>
       </c>
       <c r="B67" t="n">
-        <v>1.948173093959146</v>
+        <v>-0.8924742185554174</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.2171750432276044</v>
+        <v>-0.9327720826824284</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.6439897760709119</v>
+        <v>-0.9355140861238238</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.08483972174730733</v>
+        <v>1.45181910763744</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.2004735472057916</v>
+        <v>1.762648164192875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.6167138985567957</v>
+        <v>0.9417230712538202</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9901016932413704</v>
+        <v>0.2208629383690779</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9796340074440714</v>
+        <v>0.9847914642494529</v>
       </c>
       <c r="B71" t="n">
-        <v>1.627090406293988</v>
+        <v>1.067785635973489</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4334755635831055</v>
+        <v>-1.121007903628473</v>
       </c>
       <c r="B72" t="n">
-        <v>1.206230479102906</v>
+        <v>-1.390230748958051</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1182844157926174</v>
+        <v>0.1145855352736022</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.3363819911676702</v>
+        <v>-0.2878172417896144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.9304743403809139</v>
+        <v>-0.1155113159149359</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7566862574341801</v>
+        <v>-0.4140889716750565</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-1.369590454528373</v>
+        <v>-0.6443039437491912</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.036581557321306</v>
+        <v>-0.5597454768144793</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.2023382771916497</v>
+        <v>1.478678362625069</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.3712076706042519</v>
+        <v>1.949001816080664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.2293870726434693</v>
+        <v>-0.1519626789277203</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.08883699653808366</v>
+        <v>0.2025740201546372</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.3914530845739542</v>
+        <v>-0.695514999562756</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.7802153260456166</v>
+        <v>-1.252926098956959</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.505227560921899</v>
+        <v>-0.8214629726183394</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.447031218977655</v>
+        <v>-0.9839432394794658</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.751820842288323</v>
+        <v>-0.9354595278321517</v>
       </c>
       <c r="B80" t="n">
-        <v>1.806657571145549</v>
+        <v>-1.566313539346524</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.002313934280585</v>
+        <v>-0.955412112031736</v>
       </c>
       <c r="B81" t="n">
-        <v>2.105854670720186</v>
+        <v>-0.3849543342264702</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7582172866954046</v>
+        <v>0.2674790694601804</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5162593086659657</v>
+        <v>0.6006342831086005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.4153712643692408</v>
+        <v>0.2757713649606531</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5127513357920497</v>
+        <v>0.732703704383846</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.73562269501911</v>
+        <v>-0.5651604746927789</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.155971938994571</v>
+        <v>-0.5586699208359053</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1874883735330507</v>
+        <v>1.64886447560584</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.7776576299372362</v>
+        <v>1.569238381535405</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9099657735076618</v>
+        <v>-0.862554383843021</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03982679841079</v>
+        <v>-1.05316157116832</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5974204761766377</v>
+        <v>-2.143313807317394</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6105180589608166</v>
+        <v>-2.523328283874199</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3555054941755026</v>
+        <v>1.20831802210651</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8433177918514217</v>
+        <v>0.5955020954850583</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.05996224728877579</v>
+        <v>1.336768418214906</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3652621998235066</v>
+        <v>1.058851840054393</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.8197560716608339</v>
+        <v>0.31270348254295</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4581539715785503</v>
+        <v>0.2136107942887017</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-2.240225177404986</v>
+        <v>0.43874755621412</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.595347781714327</v>
+        <v>-0.5929866023629823</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.6450545564420866</v>
+        <v>0.9616895441355365</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.035898287446754</v>
+        <v>1.269485724653612</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1.238179846268571</v>
+        <v>-0.3450653663628844</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.186644641537195</v>
+        <v>-0.7749784338005885</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-1.172670093244337</v>
+        <v>0.2930067685467171</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.545789456407971</v>
+        <v>0.2202230694206606</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.1860240677674073</v>
+        <v>0.1304452382087976</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4857793371623393</v>
+        <v>-0.2765706750798583</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.583648715091718</v>
+        <v>-1.417765451350344</v>
       </c>
       <c r="B96" t="n">
-        <v>2.096352238847699</v>
+        <v>-2.042306420304338</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3854268484154313</v>
+        <v>0.6980163068347935</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3735041645577754</v>
+        <v>0.912473814391579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.03898976983170619</v>
+        <v>0.4995162352980072</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1208880766397667</v>
+        <v>0.4079742209153381</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.2047548679014958</v>
+        <v>0.9802980096235486</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2438363246918078</v>
+        <v>1.501733036538455</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9528693011320322</v>
+        <v>0.5981254145175475</v>
       </c>
       <c r="B100" t="n">
-        <v>0.439732428376832</v>
+        <v>0.8299575654190738</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.08057215004184</v>
+        <v>0.2197991650855145</v>
       </c>
       <c r="B101" t="n">
-        <v>1.349280431940188</v>
+        <v>0.3635121489442958</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.243476085010487</v>
+        <v>1.618436156376226</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8730492432005157</v>
+        <v>1.049096732821807</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.3107174210140226</v>
+        <v>1.657987817263683</v>
       </c>
       <c r="B103" t="n">
-        <v>0.07393855842081951</v>
+        <v>1.945721477573893</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.9460619503938403</v>
+        <v>0.2642472846466697</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.7346743283113679</v>
+        <v>-0.5567681625894803</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.02100973667482737</v>
+        <v>0.5073849796063613</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.231286739242661</v>
+        <v>-0.08662823192739477</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.173126128438735</v>
+        <v>0.8296896141727148</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.549873254960044</v>
+        <v>2.136877328863602</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.2564789382754722</v>
+        <v>0.7408469518341807</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3609076215000492</v>
+        <v>1.004837847646901</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.05877818997773188</v>
+        <v>-0.5969927785429202</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.0210844824901113</v>
+        <v>-1.033965010517622</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1521101991603685</v>
+        <v>0.3777037554877457</v>
       </c>
       <c r="B109" t="n">
-        <v>1.232322807649685</v>
+        <v>0.1657800494587521</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.601158497923185</v>
+        <v>1.988251431922172</v>
       </c>
       <c r="B110" t="n">
-        <v>1.686820903288092</v>
+        <v>1.819660977873568</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.3138949966951104</v>
+        <v>1.222927402596798</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9089857511696067</v>
+        <v>1.044000148213177</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.7962648762558213</v>
+        <v>0.2276062928239646</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5041864249707342</v>
+        <v>0.5199483133640335</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.730232899998459</v>
+        <v>-1.713038503291932</v>
       </c>
       <c r="B113" t="n">
-        <v>1.008386456450885</v>
+        <v>-2.680009670346412</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.7446555577039633</v>
+        <v>-0.7376007110113593</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.342677468794861</v>
+        <v>-0.7963103612305359</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.159329800688372</v>
+        <v>-1.072617830596478</v>
       </c>
       <c r="B115" t="n">
-        <v>1.029682219825294</v>
+        <v>-1.212356083487548</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-1.36632058864821</v>
+        <v>-0.9732199295001648</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.931060437366314</v>
+        <v>-0.6666106228174409</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.008120261697927</v>
+        <v>0.236878391957476</v>
       </c>
       <c r="B117" t="n">
-        <v>1.318710347450763</v>
+        <v>-0.03016597096731535</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1720238805637217</v>
+        <v>0.05535909073076409</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.2436390207456051</v>
+        <v>0.01061618926985546</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.2912107955405749</v>
+        <v>0.3036892005646434</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.834455249560724</v>
+        <v>-0.2552491018847663</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4730435395341847</v>
+        <v>0.4718383945022933</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.4701671212412202</v>
+        <v>-0.1379175289517225</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.6927279687862409</v>
+        <v>1.148460488467939</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1620538789554035</v>
+        <v>2.144169681570535</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1.407228874629109</v>
+        <v>1.149778278751661</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.318579527895424</v>
+        <v>1.114601759129874</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.8815941309151518</v>
+        <v>1.111233361720009</v>
       </c>
       <c r="B123" t="n">
-        <v>0.875886553035952</v>
+        <v>1.289501576666307</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.2548487538976777</v>
+        <v>-0.1436773064044875</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5361555649841185</v>
+        <v>-0.1664328704212755</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.004541746695305178</v>
+        <v>-0.3546137938259168</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8746724340400659</v>
+        <v>-0.5126986540858745</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.622112943568962</v>
+        <v>0.6568146611593865</v>
       </c>
       <c r="B126" t="n">
-        <v>1.310928501825412</v>
+        <v>0.461379131022184</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.343806213162155</v>
+        <v>0.9229430727419105</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.3456051288017727</v>
+        <v>1.139509510036648</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.158856908030416</v>
+        <v>-1.199827194348831</v>
       </c>
       <c r="B128" t="n">
-        <v>1.995820477011266</v>
+        <v>-1.474899717520655</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7693782804647854</v>
+        <v>-0.8438825669555801</v>
       </c>
       <c r="B129" t="n">
-        <v>0.867142879402323</v>
+        <v>-0.5713866717470846</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-1.332653866945733</v>
+        <v>-0.5380991679377926</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.3621025702375475</v>
+        <v>-1.014208566844585</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.05622339277370916</v>
+        <v>0.3375772985414785</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.2695621016577813</v>
+        <v>0.4755679942526572</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.676104695462299</v>
+        <v>-0.7644867360865725</v>
       </c>
       <c r="B132" t="n">
-        <v>1.821478822155059</v>
+        <v>-1.19326579417279</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3672227245153305</v>
+        <v>-1.03498714231904</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4591707258851113</v>
+        <v>-0.9248289277858669</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.18043969426968</v>
+        <v>-0.8238401436176944</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.267926607724428</v>
+        <v>-0.4015310310144476</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.1476516459160603</v>
+        <v>-0.8639334630100537</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.6383374315006819</v>
+        <v>-1.357020758837105</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.715804382720038</v>
+        <v>0.3367115106145115</v>
       </c>
       <c r="B136" t="n">
-        <v>1.66828682295826</v>
+        <v>0.1936208441312979</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.2299354189278928</v>
+        <v>0.8527907092480643</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003749024492601893</v>
+        <v>0.8468956988695541</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.1371758596857741</v>
+        <v>-0.4706028729397144</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.6540129459155387</v>
+        <v>0.2231914650408712</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-0.3176212134006178</v>
+        <v>-0.4369488167194918</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.9268802651456602</v>
+        <v>-0.7200924685732613</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.388056215990536</v>
+        <v>-1.678265643178909</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1257844507747037</v>
+        <v>-1.214977632757476</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.6625295668625835</v>
+        <v>1.763303861361598</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0238074892575324</v>
+        <v>1.443300769163257</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.64287032900467</v>
+        <v>-2.22723826955361</v>
       </c>
       <c r="B142" t="n">
-        <v>1.003064198117441</v>
+        <v>-2.515770966573298</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.255384829006831</v>
+        <v>0.7407055913615828</v>
       </c>
       <c r="B143" t="n">
-        <v>1.59945534181387</v>
+        <v>0.2193658002592994</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.09248857853593587</v>
+        <v>-1.299509737822389</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.0739128942872489</v>
+        <v>-1.5639599144463</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7192974275869201</v>
+        <v>-1.014404192064039</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1764849010896807</v>
+        <v>-0.9548981353825995</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.53546044261113</v>
+        <v>-0.2524265056190246</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2724985826309558</v>
+        <v>-0.08073349084760792</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.064770151295525</v>
+        <v>-0.5446548095319883</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2867463448738627</v>
+        <v>-1.239708466458379</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.6656941598880941</v>
+        <v>-1.754348559366406</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4891048168101587</v>
+        <v>-2.196958181053421</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.40336720940871</v>
+        <v>0.2867074737632572</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4802230344290677</v>
+        <v>0.7283861803842835</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.3195621003568297</v>
+        <v>-0.4057506225800244</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.3267018772322763</v>
+        <v>-1.137290178280438</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.172099113774563</v>
+        <v>1.033065829672566</v>
       </c>
       <c r="B151" t="n">
-        <v>1.019774350888541</v>
+        <v>0.9378082423463031</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.663837868143337</v>
+        <v>-0.1982898887674043</v>
       </c>
       <c r="B152" t="n">
-        <v>2.300010646783496</v>
+        <v>-0.1854502275226148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.5647439316304934</v>
+        <v>-1.583907149418905</v>
       </c>
       <c r="B153" t="n">
-        <v>0.4647511284237608</v>
+        <v>-1.430518935714981</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.04063345260899374</v>
+        <v>-0.6863122971770885</v>
       </c>
       <c r="B154" t="n">
-        <v>0.08922605630268914</v>
+        <v>-1.214690638767848</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2648962109180403</v>
+        <v>-0.4246013038706015</v>
       </c>
       <c r="B155" t="n">
-        <v>0.4204937717401814</v>
+        <v>0.05382458307367965</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.544723951396933</v>
+        <v>-0.5712669670064067</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.6193465087312402</v>
+        <v>0.5882556753625378</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.1688502736019978</v>
+        <v>1.083669706976549</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.029624321472657</v>
+        <v>1.375909189909466</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7614129646358668</v>
+        <v>0.6946826300801043</v>
       </c>
       <c r="B158" t="n">
-        <v>0.4437142402125743</v>
+        <v>1.072845110050631</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.7534127290408843</v>
+        <v>-1.305645794826972</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.027289895616809</v>
+        <v>-1.01755470862496</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.336547778190695</v>
+        <v>-1.294262639064846</v>
       </c>
       <c r="B160" t="n">
-        <v>1.118107849801683</v>
+        <v>-0.2451648726363609</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-1.018352781084537</v>
+        <v>-0.7596034221485871</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.384807504455835</v>
+        <v>-0.5463391921494996</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.2061210490525755</v>
+        <v>0.2724296526317142</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5113336637037296</v>
+        <v>0.4098579338328998</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1972699160110797</v>
+        <v>-0.6166918536123024</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1602504806996715</v>
+        <v>-0.3981113826368531</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2453535246183465</v>
+        <v>0.1734334497108507</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1384846961072218</v>
+        <v>0.2201069864026329</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.01233160623343583</v>
+        <v>-0.252877764062176</v>
       </c>
       <c r="B165" t="n">
-        <v>0.06163414063223703</v>
+        <v>-0.3557785365459264</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1.570853792392294</v>
+        <v>1.269886919142871</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.6876735519035714</v>
+        <v>0.7309408332012541</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-1.416307184055762</v>
+        <v>-1.288027775388364</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.441174478014874</v>
+        <v>-1.423466162211629</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.5757831034657132</v>
+        <v>0.9718287058725527</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.212392920868206</v>
+        <v>0.6773988622919781</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.4556542334242017</v>
+        <v>0.1688204537905555</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2147722790828693</v>
+        <v>0.08428957261095976</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1.70040798918445</v>
+        <v>2.258212090309414</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.368298000067689</v>
+        <v>2.454264593064912</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1.541003314424082</v>
+        <v>-1.640870938141068</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.163479911112107</v>
+        <v>-1.296107396458711</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.5705241147818705</v>
+        <v>-0.3592573797152278</v>
       </c>
       <c r="B172" t="n">
-        <v>1.176830257458999</v>
+        <v>-0.9667249492554753</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.287545253958272</v>
+        <v>0.1592916472368093</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.7231932948960114</v>
+        <v>-0.3194311946412873</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.763986635483975</v>
+        <v>0.8275163952606599</v>
       </c>
       <c r="B174" t="n">
-        <v>1.980749924186221</v>
+        <v>0.2602825344728149</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.6346506827925543</v>
+        <v>-0.05143978957067078</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.3710677731825451</v>
+        <v>0.1884238833864403</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.108231550342121</v>
+        <v>-1.20417916379116</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1742025780077098</v>
+        <v>-1.664489047051929</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.6174686253235783</v>
+        <v>-1.054783311412884</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2284266824781477</v>
+        <v>-1.83200100587316</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.8799287068488906</v>
+        <v>1.920027374712394</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.06862072356985782</v>
+        <v>2.441192243359632</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5429318438417863</v>
+        <v>0.6625167911935069</v>
       </c>
       <c r="B179" t="n">
-        <v>0.7410076614276979</v>
+        <v>1.002997103295905</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.985045965854343</v>
+        <v>-0.1259064806416342</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.121882020810665</v>
+        <v>-0.5355216037235182</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.732145742108129</v>
+        <v>0.6035217780068529</v>
       </c>
       <c r="B181" t="n">
-        <v>2.315776792609002</v>
+        <v>0.8988087234968565</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.06272188595098212</v>
+        <v>1.621851183408674</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1540714709282439</v>
+        <v>2.581808961496953</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.9967424735442326</v>
+        <v>0.4553186049410052</v>
       </c>
       <c r="B183" t="n">
-        <v>1.911530779628202</v>
+        <v>0.07019836817175995</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.273875458418471</v>
+        <v>0.6100244861524088</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4637321729870423</v>
+        <v>0.3709413006998524</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.9714189137049796</v>
+        <v>-2.457769646219254</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.082999465381706</v>
+        <v>-3.032358966223175</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-1.152102757795635</v>
+        <v>-0.446978713310306</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.270641568909158</v>
+        <v>-0.5540030409783383</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.5551495757982962</v>
+        <v>0.3683410522784245</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5071101067397313</v>
+        <v>-0.1218355880591065</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.6557313038698722</v>
+        <v>0.02808130114226394</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.05970444309192302</v>
+        <v>0.003718404116808068</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-2.22482961234665</v>
+        <v>-0.4008384563154357</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.096604008968439</v>
+        <v>-0.5228880457460144</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.7359426330296444</v>
+        <v>1.22861166165103</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3784883908359167</v>
+        <v>0.9484154256765366</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.7770659845114347</v>
+        <v>1.22413505687469</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8335857866754197</v>
+        <v>1.689477400016705</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.097958082724961</v>
+        <v>0.1864309110763496</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4301774341668693</v>
+        <v>-0.03218278279096071</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.8168535656071317</v>
+        <v>-0.3118226457384508</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9136465703089457</v>
+        <v>-1.053294978307045</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.5694287470696998</v>
+        <v>0.1473919394732328</v>
       </c>
       <c r="B194" t="n">
-        <v>0.7941825073197512</v>
+        <v>0.3457841956707096</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.754575795357411</v>
+        <v>0.2532370672550241</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2038805500849724</v>
+        <v>0.5044306666033063</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.1408056019505145</v>
+        <v>-1.009489287686704</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.1175177981210516</v>
+        <v>-1.315951389688805</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.1453400775480335</v>
+        <v>0.006173922658090606</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.8965741873788037</v>
+        <v>0.2800392973766106</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.08673485028674482</v>
+        <v>-0.6271005282204781</v>
       </c>
       <c r="B198" t="n">
-        <v>0.2661281461095936</v>
+        <v>0.1782884221451768</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.2407514904369712</v>
+        <v>-0.9117871929989376</v>
       </c>
       <c r="B199" t="n">
-        <v>0.029387613323797</v>
+        <v>-1.168549505433686</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-1.057244655970832</v>
+        <v>0.9890922937689612</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.4467370056645824</v>
+        <v>0.1812586420941503</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.6654685397990674</v>
+        <v>-1.368549553934758</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.7819240641947836</v>
+        <v>-1.181893742075506</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.3950275196545694</v>
+        <v>0.5593451485951079</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.9087684720366912</v>
+        <v>0.5401866733216744</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1.535171418109453</v>
+        <v>1.963433140337395</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.055162205119977</v>
+        <v>1.0625737565657</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.05316504117870514</v>
+        <v>-1.783951424153455</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4836436628104006</v>
+        <v>-1.496332980826671</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.6628729623902065</v>
+        <v>1.480949882201929</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.6229539886349006</v>
+        <v>1.330284371099077</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.4947586068177684</v>
+        <v>-1.276101667656958</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.1892347134578948</v>
+        <v>-1.72621851622965</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1.191142860845323</v>
+        <v>-0.2491021843271889</v>
       </c>
       <c r="B207" t="n">
-        <v>1.155423100668242</v>
+        <v>-0.8778520429406715</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.036873028911425</v>
+        <v>-0.2563737072302802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3147680323251399</v>
+        <v>0.3064634765260856</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.1492769170076887</v>
+        <v>0.07648586713952195</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.263597770652672</v>
+        <v>0.2951219784146547</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.3129450808336687</v>
+        <v>-1.32135000908455</v>
       </c>
       <c r="B210" t="n">
-        <v>0.2884126414406175</v>
+        <v>-0.5431362011333528</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1.181622830548674</v>
+        <v>1.604336493669992</v>
       </c>
       <c r="B211" t="n">
-        <v>1.155455172692937</v>
+        <v>1.719692085043454</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1.97376394480891</v>
+        <v>1.201602903422977</v>
       </c>
       <c r="B212" t="n">
-        <v>2.085176961294145</v>
+        <v>0.8813748928463133</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-1.829078122836301</v>
+        <v>0.4800284486465982</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.523352897881224</v>
+        <v>0.4619050019773077</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.4304507652387216</v>
+        <v>-1.321556205327404</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.1866153182427051</v>
+        <v>-1.492885793834518</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-0.3704770809954263</v>
+        <v>0.5190421414447818</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.3997765532042302</v>
+        <v>-0.6005423652000609</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.00672181427695878</v>
+        <v>-0.1133326584605717</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1198779010958983</v>
+        <v>-0.2571923117242542</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8381374890482285</v>
+        <v>0.2610869682524472</v>
       </c>
       <c r="B217" t="n">
-        <v>1.095993016704405</v>
+        <v>-0.517749619392617</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.5949025458228336</v>
+        <v>-0.6593346251172901</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.199083001398555</v>
+        <v>0.06685859022896523</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-1.83833995256044</v>
+        <v>-2.100114311868868</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.636903794964254</v>
+        <v>-1.370411630352869</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.6219754607192505</v>
+        <v>0.3856656637955366</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.09954302605485665</v>
+        <v>0.2209278649602986</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-2.25438466216438</v>
+        <v>-1.149833638483303</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.55139891596709</v>
+        <v>-0.9223177008101427</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.4812286445807894</v>
+        <v>0.004849209911573386</v>
       </c>
       <c r="B222" t="n">
-        <v>1.195548665727991</v>
+        <v>-0.007685917535001596</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.4029728689833166</v>
+        <v>1.122156230038786</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.4467492973663905</v>
+        <v>1.008319533372767</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.863528951181612</v>
+        <v>-1.510841743259599</v>
       </c>
       <c r="B224" t="n">
-        <v>1.955953938489385</v>
+        <v>-1.940323041959974</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-1.613952726395633</v>
+        <v>-1.531885472277938</v>
       </c>
       <c r="B225" t="n">
-        <v>-2.165341365426831</v>
+        <v>-2.026787137548335</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.7898513149228078</v>
+        <v>0.814153484661037</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.086076062564371</v>
+        <v>0.9607050665731136</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.505256303916056</v>
+        <v>0.1705789127514851</v>
       </c>
       <c r="B227" t="n">
-        <v>1.888132428614793</v>
+        <v>0.2881000568385619</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.536297808359013</v>
+        <v>1.556581752810743</v>
       </c>
       <c r="B228" t="n">
-        <v>2.024247245256915</v>
+        <v>1.278771164634892</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-0.6942277877639026</v>
+        <v>-0.6568078813485235</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.270116493703813</v>
+        <v>-1.405317527425343</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.2012511047726857</v>
+        <v>-0.7328127600313077</v>
       </c>
       <c r="B230" t="n">
-        <v>0.2528785077542057</v>
+        <v>-0.8331845125179881</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.1046459939458933</v>
+        <v>0.06770090575132628</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.3341026980366117</v>
+        <v>-0.3329225700345567</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-0.01779584595415315</v>
+        <v>-0.4640086512274619</v>
       </c>
       <c r="B232" t="n">
-        <v>0.2434432244002623</v>
+        <v>-0.4304825034174767</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.676070405749005</v>
+        <v>0.2363171156093649</v>
       </c>
       <c r="B233" t="n">
-        <v>1.76049601012915</v>
+        <v>0.3364255479074728</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7441922144494998</v>
+        <v>-0.1335733167631941</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8771367603065601</v>
+        <v>-0.003097760092052759</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.3953323700458487</v>
+        <v>-0.9394831955999299</v>
       </c>
       <c r="B235" t="n">
-        <v>0.4217913427191189</v>
+        <v>0.2884863658853807</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.474943487344516</v>
+        <v>0.1029624112686852</v>
       </c>
       <c r="B236" t="n">
-        <v>1.539736409831053</v>
+        <v>-0.8748796509513879</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.933133956986552</v>
+        <v>0.306955228567494</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.7028881108697159</v>
+        <v>0.6854553413335303</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.5915070964119474</v>
+        <v>-0.4481070531876832</v>
       </c>
       <c r="B238" t="n">
-        <v>1.223182757509833</v>
+        <v>-0.946713697862801</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.2510064214364622</v>
+        <v>0.926246440207787</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5808169836361363</v>
+        <v>0.8125637019819196</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.118285916101912</v>
+        <v>2.050751709175783</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.2759673219004408</v>
+        <v>1.744362643686761</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-1.51273501540021</v>
+        <v>-0.08544532720199047</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.627420424827109</v>
+        <v>0.1859709938251838</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-1.196282867593851</v>
+        <v>-0.5275502773644785</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.4020802978558655</v>
+        <v>-0.1365357649102048</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.2364378805084582</v>
+        <v>1.546249391138819</v>
       </c>
       <c r="B243" t="n">
-        <v>1.0139176919393</v>
+        <v>0.9643734683621296</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.037438648503148</v>
+        <v>-0.2223479970888871</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2256462867052649</v>
+        <v>-0.1633188962061762</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.1701310097453651</v>
+        <v>-0.2935854055805263</v>
       </c>
       <c r="B245" t="n">
-        <v>0.2368569745067497</v>
+        <v>-0.9322132614695622</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.5176430152183933</v>
+        <v>0.5890245376593846</v>
       </c>
       <c r="B246" t="n">
-        <v>0.2078865072142613</v>
+        <v>0.02175282252773936</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-1.966416024891383</v>
+        <v>1.060752058757241</v>
       </c>
       <c r="B247" t="n">
-        <v>-2.516712597323488</v>
+        <v>1.419697971725978</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-1.21828647553174</v>
+        <v>0.5168427626616349</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.0566044737814</v>
+        <v>0.5074111434938522</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-1.175791406520883</v>
+        <v>0.6186257013436903</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.454128259968794</v>
+        <v>1.451393518540476</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-0.4181518078201433</v>
+        <v>-1.471040521691657</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.080266423096278</v>
+        <v>-1.287591862486616</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.6948477067650459</v>
+        <v>0.4562597113609498</v>
       </c>
       <c r="B251" t="n">
-        <v>0.6385120981758712</v>
+        <v>0.5045509971146712</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.101091458251437</v>
+        <v>0.3459512089609917</v>
       </c>
       <c r="B252" t="n">
-        <v>1.74811651123488</v>
+        <v>-0.07091843387359981</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-0.9342324213872203</v>
+        <v>-0.01596917276704396</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.942456918543606</v>
+        <v>0.1586647238348673</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-0.1919321163051848</v>
+        <v>-1.40239553888267</v>
       </c>
       <c r="B254" t="n">
-        <v>0.559446125726394</v>
+        <v>-0.9820791015391699</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-1.487092237358183</v>
+        <v>-0.7679528154955716</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.010431686629287</v>
+        <v>-1.226079874920065</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.150818178201487</v>
+        <v>1.299094194064605</v>
       </c>
       <c r="B256" t="n">
-        <v>1.697831641717906</v>
+        <v>0.9025890836871682</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.689386412212434</v>
+        <v>-0.4626883612909234</v>
       </c>
       <c r="B257" t="n">
-        <v>1.492309781322377</v>
+        <v>-0.4270189263633765</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-0.6581363247942155</v>
+        <v>-3.031624427993589</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.6635280723567005</v>
+        <v>-2.42542089060874</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-0.831592995336683</v>
+        <v>-0.6309393435834107</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.8285799628065423</v>
+        <v>-0.4391137786662428</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1.182431232509017</v>
+        <v>1.877655141200849</v>
       </c>
       <c r="B260" t="n">
-        <v>1.202792389923151</v>
+        <v>2.325047573905528</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.4780786205696481</v>
+        <v>-0.6634835503132317</v>
       </c>
       <c r="B261" t="n">
-        <v>0.02996965853993966</v>
+        <v>-0.9816025742608901</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.8131391130175537</v>
+        <v>-0.1943454484753771</v>
       </c>
       <c r="B262" t="n">
-        <v>0.07325015190243611</v>
+        <v>-0.07745663655117123</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.5443978993545678</v>
+        <v>-0.8016885670130589</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1497786541264371</v>
+        <v>-0.6105904494397502</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.424233974911141</v>
+        <v>0.9699810837944322</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6931369482642009</v>
+        <v>0.8674106845840919</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-1.950968577986304</v>
+        <v>-0.8832314380147313</v>
       </c>
       <c r="B265" t="n">
-        <v>-2.67611159868631</v>
+        <v>-1.454583035338466</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.8195327936445296</v>
+        <v>-1.209044503162591</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3478499949829084</v>
+        <v>-1.518829405449678</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-0.2132332066986979</v>
+        <v>0.3143072721357968</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.277722442845916</v>
+        <v>-0.3759029639360036</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.5863856019883076</v>
+        <v>0.8529707987473627</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.085602310430833</v>
+        <v>0.3384252663225292</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.9675980803856801</v>
+        <v>-2.165621611938418</v>
       </c>
       <c r="B269" t="n">
-        <v>0.9787147899138566</v>
+        <v>-3.199929005427791</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-1.358471830781913</v>
+        <v>-0.2494334432911279</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.704601238876369</v>
+        <v>-0.2894371457200444</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-1.053681351399222</v>
+        <v>0.6431992847893389</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.587205597138357</v>
+        <v>0.3832438192107408</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>1.063440150491062</v>
+        <v>0.1637189566041298</v>
       </c>
       <c r="B272" t="n">
-        <v>1.507583960850293</v>
+        <v>-0.003130011667558774</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.737796100239072</v>
+        <v>-0.8019507673180095</v>
       </c>
       <c r="B273" t="n">
-        <v>2.244314611356458</v>
+        <v>-0.09057809406885919</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-0.8039621371457085</v>
+        <v>0.4253396835918822</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.05530669569305602</v>
+        <v>0.5463939398875872</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.5455171578058476</v>
+        <v>0.2177411848738489</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.5520727393041435</v>
+        <v>0.5076745484082139</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-0.4889709889248399</v>
+        <v>-0.8729081177884109</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.983462573628993</v>
+        <v>-1.61518928171356</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-0.7793845164478489</v>
+        <v>-0.261595661832854</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.7208891612701562</v>
+        <v>0.432571798016443</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.2692467427250853</v>
+        <v>0.1271108120239157</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.032051160804175</v>
+        <v>0.2405794218056936</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.5752336398715597</v>
+        <v>-1.319979618061581</v>
       </c>
       <c r="B279" t="n">
-        <v>1.360419262492694</v>
+        <v>-1.776574506212264</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.4080969571729532</v>
+        <v>0.4555598137688349</v>
       </c>
       <c r="B280" t="n">
-        <v>0.7393967898176426</v>
+        <v>0.8196270163552317</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.8926789174157629</v>
+        <v>-2.628259566901856</v>
       </c>
       <c r="B281" t="n">
-        <v>0.8100325384892515</v>
+        <v>-3.051590763636902</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.3073351775357014</v>
+        <v>1.160806566252933</v>
       </c>
       <c r="B282" t="n">
-        <v>0.7510077048186359</v>
+        <v>0.9088504825928974</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-1.6119136873499</v>
+        <v>0.1424129372517621</v>
       </c>
       <c r="B283" t="n">
-        <v>-1.553918446016431</v>
+        <v>0.344313157351641</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-0.08305357774052681</v>
+        <v>0.6012710786157504</v>
       </c>
       <c r="B284" t="n">
-        <v>0.240021948445341</v>
+        <v>0.5648704047738853</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-1.323338419875766</v>
+        <v>-0.05192623001607492</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.6735929031563962</v>
+        <v>-0.3151384483592045</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.04793864377469106</v>
+        <v>-0.4471915006231436</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.9646821189588058</v>
+        <v>-0.6673005118272105</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-1.353888318271307</v>
+        <v>-0.9570799251457872</v>
       </c>
       <c r="B287" t="n">
-        <v>-1.335490046110908</v>
+        <v>-1.003181526307824</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-0.004172343558510719</v>
+        <v>-0.3121104297614776</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3983931814884279</v>
+        <v>-0.2779206815832905</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1.482789051536184</v>
+        <v>-0.1651149582912344</v>
       </c>
       <c r="B289" t="n">
-        <v>1.402431522647139</v>
+        <v>0.2431883532090166</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.2250933452079381</v>
+        <v>0.5487276841151365</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.0868759028052819</v>
+        <v>0.6485106841408275</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.6350734356232205</v>
+        <v>-0.004830019337414644</v>
       </c>
       <c r="B291" t="n">
-        <v>0.8351619135291084</v>
+        <v>0.09133445750191996</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.6307668406235168</v>
+        <v>0.3964357861982951</v>
       </c>
       <c r="B292" t="n">
-        <v>1.496093262972538</v>
+        <v>0.02887701323817893</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.7830867592801134</v>
+        <v>-0.710151789032737</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.023181642252335</v>
+        <v>-0.3870964813181126</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.0665225608886436</v>
+        <v>0.2062196091602991</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2117405835583528</v>
+        <v>-0.3544903383259508</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1.143697583868184</v>
+        <v>1.371415765015769</v>
       </c>
       <c r="B295" t="n">
-        <v>0.9202912499564415</v>
+        <v>1.614741813704797</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.225043197100888</v>
+        <v>-0.05314656443070417</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.1274341529394878</v>
+        <v>-0.3260756106176957</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.126255004115219</v>
+        <v>0.290831228318914</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.3903881842940077</v>
+        <v>0.07901795368442335</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.012621990263179</v>
+        <v>0.7430461794330839</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8655111777211453</v>
+        <v>1.324094537608377</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.006945410391933528</v>
+        <v>0.3234985759774769</v>
       </c>
       <c r="B299" t="n">
-        <v>0.0540876594201671</v>
+        <v>0.7460223269845697</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>-0.09985608823206277</v>
+        <v>0.8791664429624629</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.6950166235551307</v>
+        <v>0.4867682311794791</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-1.533372786483107</v>
+        <v>-0.248002089718409</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.906751029523425</v>
+        <v>0.3159781485136204</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.4536808202129156</v>
+        <v>-0.2462153142898014</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.123949713727419</v>
+        <v>-0.4694581034587451</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.4590429784142109</v>
+        <v>0.160681325065851</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3255676709500798</v>
+        <v>-0.6316396309785339</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-1.424845946752143</v>
+        <v>1.203200279989125</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.103638563065271</v>
+        <v>1.13901835809694</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-0.3193404781237428</v>
+        <v>-0.4177609236374079</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.359520269590233</v>
+        <v>-1.03937968175443</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-0.7698490959045504</v>
+        <v>-1.059189926816672</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.360828652052993</v>
+        <v>-1.943113598819662</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>-1.025144342279304</v>
+        <v>0.5747665502946939</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.6751819284287284</v>
+        <v>0.2426587666061789</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.5861190811843245</v>
+        <v>-0.2782294739222209</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8409432031566551</v>
+        <v>-0.5116688804804309</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.07105601355088453</v>
+        <v>0.9579843872410442</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.5837825993406485</v>
+        <v>0.1001721139095411</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-1.66212819895864</v>
+        <v>0.3863297187903493</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.7934275191021712</v>
+        <v>1.177399650035476</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.9965276395285259</v>
+        <v>-0.5350036019218274</v>
       </c>
       <c r="B311" t="n">
-        <v>1.652432198400239</v>
+        <v>-0.8163474983038488</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.02230966095431376</v>
+        <v>-1.952522969181797</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.620294215302139</v>
+        <v>-1.500136673259023</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>-0.845951569796675</v>
+        <v>-1.062106864266792</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.606887494310691</v>
+        <v>-0.2436993856941099</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-1.730828453356943</v>
+        <v>-0.4509506227521373</v>
       </c>
       <c r="B314" t="n">
-        <v>-2.344046775741096</v>
+        <v>-1.519296550288121</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.1826840661728237</v>
+        <v>1.271818186877355</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.2444885238320447</v>
+        <v>2.16557624196058</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.109107181835416</v>
+        <v>-0.1634938378390519</v>
       </c>
       <c r="B316" t="n">
-        <v>0.05211537093701048</v>
+        <v>0.02716818346829872</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>-0.1177758911779896</v>
+        <v>0.04145293330176416</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2493276652848363</v>
+        <v>-0.2973038392319937</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.8665737148740708</v>
+        <v>-0.3127886097047183</v>
       </c>
       <c r="B318" t="n">
-        <v>0.7005587466357608</v>
+        <v>-0.709261388229126</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-2.048529364275905</v>
+        <v>-0.1045472987730342</v>
       </c>
       <c r="B319" t="n">
-        <v>-3.100501373611174</v>
+        <v>-0.3656414998288597</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.758887289496912</v>
+        <v>-0.2148722344223212</v>
       </c>
       <c r="B320" t="n">
-        <v>1.707909415390408</v>
+        <v>-0.9061795860186006</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-1.546717012913025</v>
+        <v>1.027916444759064</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.106221016043986</v>
+        <v>0.4810013079732582</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.4166950590008895</v>
+        <v>-2.103144673224044</v>
       </c>
       <c r="B322" t="n">
-        <v>0.110613408672026</v>
+        <v>-1.874406605789992</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.351882488370757</v>
+        <v>-0.5522216689571189</v>
       </c>
       <c r="B323" t="n">
-        <v>1.062243057695246</v>
+        <v>-0.2242514916162327</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-1.707469558060375</v>
+        <v>-0.06204565276908872</v>
       </c>
       <c r="B324" t="n">
-        <v>-2.616650005404971</v>
+        <v>-0.2583731891725897</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>-1.523863205046418</v>
+        <v>0.8494212961054572</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.709848960297947</v>
+        <v>0.2243289478922648</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.9479381109020198</v>
+        <v>1.089415390322688</v>
       </c>
       <c r="B326" t="n">
-        <v>1.044831277746252</v>
+        <v>1.867254997331063</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.4626850335391859</v>
+        <v>-0.3660436851492156</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.6079219269417311</v>
+        <v>-0.8070398487732711</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.224076583331638</v>
+        <v>0.7058357608672333</v>
       </c>
       <c r="B328" t="n">
-        <v>2.153673109778475</v>
+        <v>0.4676762982603746</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.1185611904754955</v>
+        <v>-0.01696183009723248</v>
       </c>
       <c r="B329" t="n">
-        <v>1.052432252279797</v>
+        <v>-0.07477587986773963</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.9486785059446299</v>
+        <v>-1.162702034528488</v>
       </c>
       <c r="B330" t="n">
-        <v>0.09190718038720302</v>
+        <v>-1.025635044701429</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.2279179237585645</v>
+        <v>-0.4184247133635006</v>
       </c>
       <c r="B331" t="n">
-        <v>0.479037658952847</v>
+        <v>-0.2473886239981511</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.2236165877430015</v>
+        <v>-0.3000829474585837</v>
       </c>
       <c r="B332" t="n">
-        <v>0.3697855686041154</v>
+        <v>-0.124528743063666</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-1.249247030546937</v>
+        <v>0.09190592934250118</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.234946062963396</v>
+        <v>0.1131624460764006</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.09547107131437836</v>
+        <v>-0.9242086685855757</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.5934773345338954</v>
+        <v>-0.5708636748243072</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.6633468423255542</v>
+        <v>0.141910646566757</v>
       </c>
       <c r="B335" t="n">
-        <v>1.568749531035771</v>
+        <v>0.6091513163024258</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-1.01080436260342</v>
+        <v>-1.439869634337261</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.8885095639026389</v>
+        <v>-2.05139352756161</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-1.216196254060287</v>
+        <v>0.5808666343578776</v>
       </c>
       <c r="B337" t="n">
-        <v>-1.674270378237428</v>
+        <v>0.7797283105884658</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-1.308007801040379</v>
+        <v>0.3330413830387789</v>
       </c>
       <c r="B338" t="n">
-        <v>-2.183801415420847</v>
+        <v>0.3628026845498388</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>-1.133750946965493</v>
+        <v>-0.0009668192736273149</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.9038845953110979</v>
+        <v>-0.2794694058543628</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-1.299857486216269</v>
+        <v>0.2481241958625121</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.9563086798708647</v>
+        <v>0.5843602401628057</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.03516612197960287</v>
+        <v>-0.8819529995209204</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.5227432446428136</v>
+        <v>-0.7278890415080707</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.05501302126667416</v>
+        <v>1.154964224471847</v>
       </c>
       <c r="B342" t="n">
-        <v>0.9065603612808467</v>
+        <v>0.8206226189942274</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.9690196182324172</v>
+        <v>-0.8213258178302509</v>
       </c>
       <c r="B343" t="n">
-        <v>0.07280066282446473</v>
+        <v>0.2018679899336853</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-1.63969364437871</v>
+        <v>-0.8144868961020374</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.480204865160363</v>
+        <v>-0.7631837214913415</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.1885909285574197</v>
+        <v>0.5386572105758621</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.204229137775927</v>
+        <v>0.7745936197032691</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-0.885333815336639</v>
+        <v>0.6084499901674965</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.077335372373541</v>
+        <v>1.30625334722199</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-0.1310799987966161</v>
+        <v>1.363469288482221</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.7204619058988766</v>
+        <v>1.388451356459256</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.300958998632643</v>
+        <v>-0.1880697848773922</v>
       </c>
       <c r="B348" t="n">
-        <v>1.12531756904282</v>
+        <v>-0.7056869184789285</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-1.114762511840132</v>
+        <v>0.2966439516795385</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.8558256468818501</v>
+        <v>0.833798210473483</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-1.756327048868026</v>
+        <v>-0.196205159729673</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.327341223316886</v>
+        <v>0.1387453727786888</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.7673709650131418</v>
+        <v>0.3546398480440111</v>
       </c>
       <c r="B351" t="n">
-        <v>1.02354804022944</v>
+        <v>-0.1993516555800959</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-0.2017345939380381</v>
+        <v>0.586647053431987</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.5639611893176159</v>
+        <v>0.6162120072019965</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-0.7863275205055625</v>
+        <v>0.7174925148466319</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.261361106317112</v>
+        <v>0.2149762587815376</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-0.1415445166796069</v>
+        <v>-0.40447418297937</v>
       </c>
       <c r="B354" t="n">
-        <v>0.09599097038677129</v>
+        <v>-0.05058565337700366</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>-2.522331872131141</v>
+        <v>0.04691179421789514</v>
       </c>
       <c r="B355" t="n">
-        <v>-2.834851357932226</v>
+        <v>0.8695347472349055</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.7493986400168946</v>
+        <v>-0.4347852296044956</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.2938480512005113</v>
+        <v>-0.3389605731899931</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-1.154609133460204</v>
+        <v>0.2947138691618347</v>
       </c>
       <c r="B357" t="n">
-        <v>-1.424950959971036</v>
+        <v>-0.3535825755352836</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-2.285521910644235</v>
+        <v>-1.193005064578185</v>
       </c>
       <c r="B358" t="n">
-        <v>-2.070171223590659</v>
+        <v>-1.300588199425282</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-1.145402230997419</v>
+        <v>-0.7011880753437036</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.406006998998881</v>
+        <v>0.4811120589108835</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.058251437333563</v>
+        <v>0.06643257988239498</v>
       </c>
       <c r="B360" t="n">
-        <v>1.433707634098822</v>
+        <v>-0.2823357780263253</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.3719701647825088</v>
+        <v>-0.01349729709325952</v>
       </c>
       <c r="B361" t="n">
-        <v>0.5899695888502763</v>
+        <v>-0.462818774914829</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1.464671861170174</v>
+        <v>-0.09811104623211067</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9936361710827991</v>
+        <v>-0.8393843095373605</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2.244463683037773</v>
+        <v>-0.6244095820298013</v>
       </c>
       <c r="B363" t="n">
-        <v>1.415325306440649</v>
+        <v>-1.806480948354363</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.00335957648809264</v>
+        <v>0.02898833838912713</v>
       </c>
       <c r="B364" t="n">
-        <v>0.5832961558002399</v>
+        <v>0.06643971590651764</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.6513892734210333</v>
+        <v>0.762068336505643</v>
       </c>
       <c r="B365" t="n">
-        <v>0.1183376582619381</v>
+        <v>0.1946267922740004</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.9823594832747735</v>
+        <v>-1.172524322855342</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.3591894889193685</v>
+        <v>-0.7048350055268247</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-1.065579772547679</v>
+        <v>0.507058136493142</v>
       </c>
       <c r="B367" t="n">
-        <v>-1.688872236531588</v>
+        <v>0.4088269065181181</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.5269147131320236</v>
+        <v>-0.6206404462841861</v>
       </c>
       <c r="B368" t="n">
-        <v>0.7256558916381</v>
+        <v>-0.6692551454772147</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.7978286405087901</v>
+        <v>0.3994816717796765</v>
       </c>
       <c r="B369" t="n">
-        <v>2.031364663059255</v>
+        <v>0.7650874619217016</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.7664435928106405</v>
+        <v>-0.351256596774183</v>
       </c>
       <c r="B370" t="n">
-        <v>1.317767435922337</v>
+        <v>-0.113586941740555</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.8734541026674257</v>
+        <v>-1.150006597420105</v>
       </c>
       <c r="B371" t="n">
-        <v>0.9261170070045768</v>
+        <v>-1.275557954816576</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.9729091798709362</v>
+        <v>1.178671432739566</v>
       </c>
       <c r="B372" t="n">
-        <v>1.139683022689629</v>
+        <v>0.833682966119443</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-0.8853554226925869</v>
+        <v>0.5429857778131018</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.798615692829738</v>
+        <v>-0.5538531131130315</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.1281219021028695</v>
+        <v>2.186755206338664</v>
       </c>
       <c r="B374" t="n">
-        <v>1.261244888735447</v>
+        <v>2.026220922937611</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>-1.961154760920738</v>
+        <v>-0.9057679890488989</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.43391520628005</v>
+        <v>-0.1394076802249539</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-1.504768138470441</v>
+        <v>-0.8092741793398222</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.541729824638314</v>
+        <v>-1.575125183252287</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-0.7156733350293862</v>
+        <v>-0.9058123697808135</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.727600834501139</v>
+        <v>-1.511917012426723</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.4360732910543344</v>
+        <v>-0.6725989098837316</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.01025613039027179</v>
+        <v>-0.7698757905058279</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.2448208920515267</v>
+        <v>-0.7651507566131905</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.3325953859747751</v>
+        <v>-0.6689877629294361</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-0.1221604734781742</v>
+        <v>-0.6503426087861156</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.3600141530558446</v>
+        <v>-0.4635763888063407</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.5416350740797629</v>
+        <v>0.3249246145161371</v>
       </c>
       <c r="B381" t="n">
-        <v>0.2606036215914381</v>
+        <v>-0.1120961865660314</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.474124632876257</v>
+        <v>0.05060974038920674</v>
       </c>
       <c r="B382" t="n">
-        <v>0.01214852094410518</v>
+        <v>-0.08038661931430155</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.7903583845891212</v>
+        <v>1.092413884247043</v>
       </c>
       <c r="B383" t="n">
-        <v>0.9470092602653848</v>
+        <v>1.635938900689707</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.8973942188825175</v>
+        <v>-0.06078369037924085</v>
       </c>
       <c r="B384" t="n">
-        <v>0.7349001023931316</v>
+        <v>0.2680564773899305</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-3.422871223074216</v>
+        <v>1.527032909268329</v>
       </c>
       <c r="B385" t="n">
-        <v>-2.993536853187363</v>
+        <v>0.8054109060859167</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.1453641084353036</v>
+        <v>-0.6000425861537821</v>
       </c>
       <c r="B386" t="n">
-        <v>0.7398159031650282</v>
+        <v>-0.869098245797796</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.5969401477500512</v>
+        <v>-0.2558925487015536</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.866195142316378</v>
+        <v>-0.3595559986236079</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.938078212703777</v>
+        <v>-0.8368408501128298</v>
       </c>
       <c r="B388" t="n">
-        <v>-1.25839302471485</v>
+        <v>-1.02153431052797</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.09683715034067404</v>
+        <v>-0.2360187406117365</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.01144577061625086</v>
+        <v>-0.2794562400373709</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.5080219208096852</v>
+        <v>1.011865853120111</v>
       </c>
       <c r="B390" t="n">
-        <v>0.6972875031808856</v>
+        <v>1.170575803225573</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1.366940228595439</v>
+        <v>-0.171105089648135</v>
       </c>
       <c r="B391" t="n">
-        <v>1.100628761980848</v>
+        <v>-0.374693305992718</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1.150447465104138</v>
+        <v>-0.06971455714681266</v>
       </c>
       <c r="B392" t="n">
-        <v>1.460102824761303</v>
+        <v>0.1386241456572494</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.3367874949177339</v>
+        <v>-2.654265285441301</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.5747282963671884</v>
+        <v>-3.448101453493313</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-1.808735295041877</v>
+        <v>0.3546987802508401</v>
       </c>
       <c r="B394" t="n">
-        <v>-2.249702164486783</v>
+        <v>-0.5266780195428781</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.918527465009934</v>
+        <v>1.011004343001722</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.9811017842097498</v>
+        <v>0.8626303360490886</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-0.1931972502103752</v>
+        <v>0.8013147149313831</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.001035313729789739</v>
+        <v>0.5536193349568235</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.3904509161862238</v>
+        <v>0.4336910782802108</v>
       </c>
       <c r="B397" t="n">
-        <v>0.1186778602963787</v>
+        <v>-0.1125283636609067</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1.95875317264855</v>
+        <v>0.3309639951535245</v>
       </c>
       <c r="B398" t="n">
-        <v>2.957649252973402</v>
+        <v>0.4684365523471101</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-0.7890170969704122</v>
+        <v>0.1331722854088341</v>
       </c>
       <c r="B399" t="n">
-        <v>-1.185274170663145</v>
+        <v>0.6557038222215292</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.08805535170600312</v>
+        <v>-0.4389434084726909</v>
       </c>
       <c r="B400" t="n">
-        <v>1.628379671016543</v>
+        <v>-1.100979270892552</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-0.4610817132505646</v>
+        <v>-0.2553233441273724</v>
       </c>
       <c r="B401" t="n">
-        <v>-0.1603895579810188</v>
+        <v>-0.2223910367415233</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-1.742066915428632</v>
+        <v>0.3245662274008625</v>
       </c>
       <c r="B402" t="n">
-        <v>-1.867185925241621</v>
+        <v>0.2509657733744434</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.3073621752711039</v>
+        <v>0.460006231165934</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2753461024082082</v>
+        <v>0.4834480628111309</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.20065416262025</v>
+        <v>0.08447143713047824</v>
       </c>
       <c r="B404" t="n">
-        <v>1.999335579779716</v>
+        <v>-0.174675369365555</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.384509791020659</v>
+        <v>2.111805380171</v>
       </c>
       <c r="B405" t="n">
-        <v>1.068288104472544</v>
+        <v>2.067532726626419</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.4993397251946889</v>
+        <v>0.3462166254320996</v>
       </c>
       <c r="B406" t="n">
-        <v>0.425947468978102</v>
+        <v>0.7473359048678974</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1.05955270517949</v>
+        <v>-0.3889355783882774</v>
       </c>
       <c r="B407" t="n">
-        <v>0.9568740355141518</v>
+        <v>-0.9536158047473643</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.2633257451335002</v>
+        <v>0.02101368293018286</v>
       </c>
       <c r="B408" t="n">
-        <v>0.8789772957479263</v>
+        <v>0.6422285578912716</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1.095529440130107</v>
+        <v>-0.7260631138093199</v>
       </c>
       <c r="B409" t="n">
-        <v>0.2577396181503556</v>
+        <v>-0.409325102173788</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.6123244161329073</v>
+        <v>-0.446098835969279</v>
       </c>
       <c r="B410" t="n">
-        <v>1.520770228463916</v>
+        <v>-0.914400994891815</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1.474980019903532</v>
+        <v>0.2356565638964363</v>
       </c>
       <c r="B411" t="n">
-        <v>1.331863221718237</v>
+        <v>-0.1842014750838876</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.7953042135682054</v>
+        <v>-0.3921693172090884</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.7110403045049536</v>
+        <v>0.08231107745545363</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1.479709484147876</v>
+        <v>-1.102742050597428</v>
       </c>
       <c r="B413" t="n">
-        <v>1.080701668934509</v>
+        <v>-1.300243743915508</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.2534793952647255</v>
+        <v>-0.5788548816717253</v>
       </c>
       <c r="B414" t="n">
-        <v>-1.210441325716817</v>
+        <v>-0.4746814159748584</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-1.530325034127314</v>
+        <v>0.3479791643388532</v>
       </c>
       <c r="B415" t="n">
-        <v>-1.927015961142539</v>
+        <v>0.2337462964610937</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-0.5484381140054035</v>
+        <v>0.1407022170862612</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.5582085956121333</v>
+        <v>-0.3366725624092238</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.4237758746349177</v>
+        <v>-0.8747342034047147</v>
       </c>
       <c r="B417" t="n">
-        <v>1.237952125705484</v>
+        <v>-1.321283325677545</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>-0.2372650254367508</v>
+        <v>0.6369697977904286</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.087992885758719</v>
+        <v>1.084814900565133</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.7568369908900783</v>
+        <v>0.03200384081367712</v>
       </c>
       <c r="B419" t="n">
-        <v>0.8162928896015691</v>
+        <v>1.013538560842882</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-0.4592322974117825</v>
+        <v>-0.4011948447453751</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.6602400463275632</v>
+        <v>0.4540532783796285</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-1.565993415208769</v>
+        <v>0.316496886859358</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.9675208530644691</v>
+        <v>1.021532495677761</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-0.8205372284734765</v>
+        <v>0.5153485646434427</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.6129809331486357</v>
+        <v>1.252599796637485</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-0.6104879073081553</v>
+        <v>-0.7475119329643661</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.7772689515203661</v>
+        <v>-1.013206518505579</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1.307218383950427</v>
+        <v>1.407146432473464</v>
       </c>
       <c r="B424" t="n">
-        <v>1.99845986806351</v>
+        <v>1.546732364981173</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-1.299008289090051</v>
+        <v>0.5811073387259325</v>
       </c>
       <c r="B425" t="n">
-        <v>-1.56595739600564</v>
+        <v>0.5131816339975492</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.1616703125408751</v>
+        <v>-1.672079452517047</v>
       </c>
       <c r="B426" t="n">
-        <v>0.2446806676754817</v>
+        <v>-1.934784609549101</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>-0.4137952487060505</v>
+        <v>0.6116341729449495</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1145023198774947</v>
+        <v>0.9785794975441773</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-0.1394102063698735</v>
+        <v>-0.1872695141764603</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.4449217315526212</v>
+        <v>0.08569454638535945</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.287080992273379</v>
+        <v>-0.9922941683799807</v>
       </c>
       <c r="B429" t="n">
-        <v>1.108498072800487</v>
+        <v>-1.593171751396993</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-1.265497366112421</v>
+        <v>0.6510805388082068</v>
       </c>
       <c r="B430" t="n">
-        <v>-1.814364167897723</v>
+        <v>-0.05758662011423576</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.1128377121002866</v>
+        <v>1.481534292941499</v>
       </c>
       <c r="B431" t="n">
-        <v>0.5398298608619627</v>
+        <v>1.405103387055411</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1.321916563186058</v>
+        <v>-1.439379301131536</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.85767125805062</v>
+        <v>-1.669885166864434</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1.263794683140098</v>
+        <v>-0.3685931273174543</v>
       </c>
       <c r="B433" t="n">
-        <v>0.3186485649383289</v>
+        <v>-1.386064399979859</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-2.64905175864271</v>
+        <v>2.376438263982083</v>
       </c>
       <c r="B434" t="n">
-        <v>-2.408572467113636</v>
+        <v>2.374192162170103</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.2435871847915447</v>
+        <v>-0.596087958319552</v>
       </c>
       <c r="B435" t="n">
-        <v>0.8060303602295489</v>
+        <v>-0.9796563496458337</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-1.209192269819801</v>
+        <v>0.742801274691776</v>
       </c>
       <c r="B436" t="n">
-        <v>-2.372385010126013</v>
+        <v>0.895609101465104</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1.155198150333187</v>
+        <v>0.9519366923010458</v>
       </c>
       <c r="B437" t="n">
-        <v>1.35616209158722</v>
+        <v>0.9808378122000607</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.3192152382821377</v>
+        <v>1.337288680876517</v>
       </c>
       <c r="B438" t="n">
-        <v>0.4907153052566058</v>
+        <v>1.019714566437184</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-1.348513321886952</v>
+        <v>-0.5476253461292261</v>
       </c>
       <c r="B439" t="n">
-        <v>-1.74658141156965</v>
+        <v>-1.374450642534087</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-1.773030364154686</v>
+        <v>0.1061893380631601</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.713243386585041</v>
+        <v>-0.2858193449396783</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.312340453844465</v>
+        <v>0.08445490878906164</v>
       </c>
       <c r="B441" t="n">
-        <v>2.796311078868691</v>
+        <v>-0.67374867810737</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.439280596590508</v>
+        <v>-0.5493253983913721</v>
       </c>
       <c r="B442" t="n">
-        <v>0.8543361229052797</v>
+        <v>-0.400268025734873</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.5499340545693906</v>
+        <v>1.331646551064482</v>
       </c>
       <c r="B443" t="n">
-        <v>0.7531921966891539</v>
+        <v>0.6010235708881976</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>-1.089945905266938</v>
+        <v>1.951246315650585</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.9960118526537569</v>
+        <v>1.55391872779238</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>-0.2920037765801189</v>
+        <v>0.138500978635523</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.3367889466554315</v>
+        <v>0.104719014816719</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.720968939824969</v>
+        <v>-1.982220594858672</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4543694126187405</v>
+        <v>-2.329099619448043</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.02884296439326195</v>
+        <v>0.4786837147402598</v>
       </c>
       <c r="B447" t="n">
-        <v>0.2144854501112607</v>
+        <v>-0.7916585840357966</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.4785806380403436</v>
+        <v>0.3124668633846905</v>
       </c>
       <c r="B448" t="n">
-        <v>1.297613059195396</v>
+        <v>1.211171585986603</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.2733943128859451</v>
+        <v>-0.109514323192278</v>
       </c>
       <c r="B449" t="n">
-        <v>0.3304878194450558</v>
+        <v>0.2310109197879137</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.337743375667474</v>
+        <v>-1.029144352831232</v>
       </c>
       <c r="B450" t="n">
-        <v>0.453062967782826</v>
+        <v>-1.395550184085591</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>-0.531648464051711</v>
+        <v>-0.01323578825400722</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.6703576169921761</v>
+        <v>-1.470793104486587</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.7426542684902436</v>
+        <v>-0.7846961222293016</v>
       </c>
       <c r="B452" t="n">
-        <v>0.4109937769029908</v>
+        <v>-1.672147992635646</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.6182965401912435</v>
+        <v>-0.6901599165761305</v>
       </c>
       <c r="B453" t="n">
-        <v>0.530708378259297</v>
+        <v>-1.557065726032501</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1.1624165741001</v>
+        <v>0.01386175766537024</v>
       </c>
       <c r="B454" t="n">
-        <v>1.2295695123234</v>
+        <v>0.3202922647040403</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.2446097878558806</v>
+        <v>0.1069738154274849</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6943417308633486</v>
+        <v>0.08802554082351884</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1.428972383523594</v>
+        <v>0.02930492202815865</v>
       </c>
       <c r="B456" t="n">
-        <v>1.725393615065869</v>
+        <v>0.6612700227674115</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.4792514092464487</v>
+        <v>0.5539507901347905</v>
       </c>
       <c r="B457" t="n">
-        <v>0.6859466268176908</v>
+        <v>1.031444560481726</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1.147308865865839</v>
+        <v>-0.1650392634877998</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5212736025916024</v>
+        <v>-0.5392250925479009</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.3003184470632976</v>
+        <v>-0.04852567970991863</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.615185944987591</v>
+        <v>-0.942361297862228</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.7728483578419758</v>
+        <v>2.754832216075302</v>
       </c>
       <c r="B460" t="n">
-        <v>-1.719157423129872</v>
+        <v>2.593520287543882</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.3239582438626663</v>
+        <v>-1.948369174342275</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.4708745329056445</v>
+        <v>-2.249779858410242</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.01844964056409993</v>
+        <v>0.4797454544426961</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.1146623764390461</v>
+        <v>0.3281317727092766</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.3426424479615851</v>
+        <v>-0.2601874048653914</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.1859525742669003</v>
+        <v>-0.6690772604122472</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.2268979314054447</v>
+        <v>0.9800205674388829</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6193836265450673</v>
+        <v>0.5639713502289903</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1.10414316017308</v>
+        <v>1.27145671744536</v>
       </c>
       <c r="B465" t="n">
-        <v>1.282831473838092</v>
+        <v>0.8668988251729846</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-0.6538971512238</v>
+        <v>-0.8546229907619527</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.6207673699645542</v>
+        <v>-0.582045212373647</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.2928643879613244</v>
+        <v>1.18162028222663</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6047707325353362</v>
+        <v>0.07496366570621271</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.717887835575544</v>
+        <v>0.1127177081485437</v>
       </c>
       <c r="B468" t="n">
-        <v>2.766174020035327</v>
+        <v>-0.6499628118167871</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-0.9304749334942509</v>
+        <v>-0.2230294398294053</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.4592541489522773</v>
+        <v>-0.05681042910083475</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.7065038523055107</v>
+        <v>-0.8360698949759394</v>
       </c>
       <c r="B470" t="n">
-        <v>0.6081356833271528</v>
+        <v>-0.8709266081720972</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.537285566895558</v>
+        <v>1.254910071886725</v>
       </c>
       <c r="B471" t="n">
-        <v>1.703543645259495</v>
+        <v>1.267993428446238</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-0.8164819485610423</v>
+        <v>0.1067950432778332</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.306490189196004</v>
+        <v>0.6005957680545172</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.627528363600999</v>
+        <v>-1.747434327416695</v>
       </c>
       <c r="B473" t="n">
-        <v>-1.304948163282944</v>
+        <v>-1.443982768707956</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-0.4048158825509112</v>
+        <v>-0.004898907029247513</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.4000562660984714</v>
+        <v>0.8085690055418087</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1.348104494145451</v>
+        <v>-1.513189034167998</v>
       </c>
       <c r="B475" t="n">
-        <v>0.2511845903401972</v>
+        <v>-1.471229755835366</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>-1.133840131644634</v>
+        <v>1.594466598741168</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.579697796138133</v>
+        <v>1.27423630206119</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>-0.06621852186705907</v>
+        <v>-0.5827180039407672</v>
       </c>
       <c r="B477" t="n">
-        <v>0.1261045377626648</v>
+        <v>-0.3348212025207406</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.6184970886783255</v>
+        <v>-1.16817244133732</v>
       </c>
       <c r="B478" t="n">
-        <v>1.166809420575917</v>
+        <v>-1.155017121404913</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.8394330098317067</v>
+        <v>-1.331027022245972</v>
       </c>
       <c r="B479" t="n">
-        <v>0.5570012127551525</v>
+        <v>-1.623118361940419</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.03763602688215572</v>
+        <v>-0.8093380368321597</v>
       </c>
       <c r="B480" t="n">
-        <v>0.1941172845035941</v>
+        <v>-1.068581660839568</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.8115351601250619</v>
+        <v>1.203326373176573</v>
       </c>
       <c r="B481" t="n">
-        <v>0.8182788837791519</v>
+        <v>2.439913649524839</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-1.61369006130032</v>
+        <v>-0.9154376951669388</v>
       </c>
       <c r="B482" t="n">
-        <v>-2.148153241708749</v>
+        <v>-1.58125286496233</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.060944648773197</v>
+        <v>-0.2066834551317355</v>
       </c>
       <c r="B483" t="n">
-        <v>1.841417444894971</v>
+        <v>-0.6816269796489691</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.5235670571398089</v>
+        <v>-0.5511773084519916</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.7385345741823111</v>
+        <v>-0.7494234869769618</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1.397376716245508</v>
+        <v>-1.299285148601591</v>
       </c>
       <c r="B485" t="n">
-        <v>2.496682468194307</v>
+        <v>-1.69988004213724</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-2.045899604380392</v>
+        <v>0.6736970010131642</v>
       </c>
       <c r="B486" t="n">
-        <v>-1.49827606201461</v>
+        <v>-0.399973047513847</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.7038959037036541</v>
+        <v>0.2326082070172188</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.2967295278699121</v>
+        <v>0.1529781808281315</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.9329613413671544</v>
+        <v>-0.4998257455023665</v>
       </c>
       <c r="B488" t="n">
-        <v>1.283926599089374</v>
+        <v>-1.163141595167022</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-1.392393765394404</v>
+        <v>1.32276572989149</v>
       </c>
       <c r="B489" t="n">
-        <v>-1.845029706162477</v>
+        <v>1.143663017215343</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>-0.3147720194078463</v>
+        <v>0.9351143223296453</v>
       </c>
       <c r="B490" t="n">
-        <v>0.5870424368241836</v>
+        <v>1.622876400838614</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.859780903630365</v>
+        <v>0.8431992511687417</v>
       </c>
       <c r="B491" t="n">
-        <v>1.146833744784113</v>
+        <v>0.7761957438104305</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.4001505672672218</v>
+        <v>0.4957051592198913</v>
       </c>
       <c r="B492" t="n">
-        <v>0.8098925595799162</v>
+        <v>-0.09886084048392446</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.632518647578192</v>
+        <v>0.1781906787855607</v>
       </c>
       <c r="B493" t="n">
-        <v>1.329359156549059</v>
+        <v>-0.1348883244661009</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-1.361694760910105</v>
+        <v>-0.7495938577371941</v>
       </c>
       <c r="B494" t="n">
-        <v>-1.622865208444359</v>
+        <v>0.3611233543105175</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.5996020347397314</v>
+        <v>-1.731974508622799</v>
       </c>
       <c r="B495" t="n">
-        <v>1.458448722655338</v>
+        <v>-1.822033800590767</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.03033656528943521</v>
+        <v>0.1016769120418939</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.085240279312588</v>
+        <v>-0.7721904416346214</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.4144670388362749</v>
+        <v>1.02141704453567</v>
       </c>
       <c r="B497" t="n">
-        <v>1.545026060945831</v>
+        <v>1.056059391860915</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-1.809958455112129</v>
+        <v>1.225405936123454</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.340780084184933</v>
+        <v>1.700306325170664</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.490907015035935</v>
+        <v>1.220886303624299</v>
       </c>
       <c r="B499" t="n">
-        <v>0.9667018644821986</v>
+        <v>1.940683578204019</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-1.778571184856935</v>
+        <v>-0.3728709292499776</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.489957274167375</v>
+        <v>-0.9539752707738263</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-0.1578591265342867</v>
+        <v>-1.523425922312602</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.5246547806615081</v>
+        <v>-1.613644606241538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Brain Size</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Drug Effect</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Neuro Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27.75371783226674</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.361305446514601</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21.85430137111507</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50.28166051344738</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.385564128881261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.43036961177768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31.50564783266537</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.663352876889236</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.76188674192768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>46.20350115800161</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.749172827620747</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41.03882359083138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63.44709610738049</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.979385611401848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39.74453132372707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>43.65450840627505</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.556285947792241</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.20095938974654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>43.24287577340703</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.640422203273043</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.31140878213446</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32.05063493552568</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.30403780350696</v>
+      </c>
+      <c r="C9" t="n">
+        <v>42.17953022235666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49.97004772633858</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.325939744994622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22.17753331221952</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63.47227279094678</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.924947125534704</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47.38395705482672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42.61000265882036</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0133175496734</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.46623153409023</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52.00433048720546</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7.267833277289621</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32.95099446604732</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64.80941646823538</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.137371118531424</v>
+      </c>
+      <c r="C14" t="n">
+        <v>45.6435041963714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39.7920995253027</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.034310523584994</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.63841696217288</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51.28477205776993</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.645743525062675</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.33257516674739</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49.10510380307663</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.443693862654739</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.57610099327873</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55.16736877274673</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.095212307608156</v>
+      </c>
+      <c r="C18" t="n">
+        <v>39.80894078725603</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51.44198984298214</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.941166792116698</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40.05522679058206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>72.83087908649327</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.077916931776119</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42.73209628588164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34.4419076813861</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.581008344780315</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37.67687703383271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42.99255801596344</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.411270447346459</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24.66674592093797</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47.59197159966288</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.626540330899047</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28.86898425294681</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52.75291334197208</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.697927280427066</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36.96582672573236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51.4649721423022</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.831916953290329</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38.58750856077986</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53.32642671721588</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.874323298129633</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.19473879085925</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51.21931953610149</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.103968334234321</v>
+      </c>
+      <c r="C27" t="n">
+        <v>34.3248113494012</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52.30700756636621</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.564728319720759</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31.7233598175979</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60.76589190921895</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.358316677996812</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38.03027845947931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>69.65806043579487</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.393850324377132</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50.57818197541342</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56.37100035577109</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.608875870565127</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39.92008599644873</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58.69017110680498</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.434583429380907</v>
+      </c>
+      <c r="C32" t="n">
+        <v>39.54794492425345</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45.71203817742192</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.731700534801381</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.97226852012064</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55.8725383379761</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7952581067837476</v>
+      </c>
+      <c r="C34" t="n">
+        <v>29.07516623385472</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52.7152710532002</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.46224595525123</v>
+      </c>
+      <c r="C35" t="n">
+        <v>42.79988587817616</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23.03953912316565</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.520658069967809</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.10476724928575</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>47.51640593865072</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.043370518339983</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.51606106671547</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41.27372462325992</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.033775392202077</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26.93170756201979</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64.0582252432814</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.970672513093517</v>
+      </c>
+      <c r="C39" t="n">
+        <v>48.83781106059659</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35.48318095825484</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.901573132333733</v>
+      </c>
+      <c r="C40" t="n">
+        <v>42.28926805105554</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51.84279018790786</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.558075469244691</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34.87269242358552</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59.01318920813462</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5.295589220981772</v>
+      </c>
+      <c r="C42" t="n">
+        <v>38.79612791082251</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>71.56265426526571</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.247016671506828</v>
+      </c>
+      <c r="C43" t="n">
+        <v>50.17042869243908</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>48.0804217116624</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6.636385901389192</v>
+      </c>
+      <c r="C44" t="n">
+        <v>41.70682259548565</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62.90040431437999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9.928382638055144</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43.97868657389245</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65.41839906405657</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.912723318368102</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.68118418168951</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.48288889513518</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.26316197951325</v>
+      </c>
+      <c r="C47" t="n">
+        <v>36.49446148296735</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55.1013827204454</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.112921572622807</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32.93199232603462</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55.51089714774826</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.213060348024973</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.30751750210239</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57.52611487735261</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.754585079217613</v>
+      </c>
+      <c r="C50" t="n">
+        <v>38.51522320265397</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36.12815254229978</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6.568026781315406</v>
+      </c>
+      <c r="C51" t="n">
+        <v>27.44413634833941</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54.76651897504601</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.221029015887797</v>
+      </c>
+      <c r="C52" t="n">
+        <v>33.83048415541364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61.21555495130278</v>
+      </c>
+      <c r="B53" t="n">
+        <v>7.453451191508226</v>
+      </c>
+      <c r="C53" t="n">
+        <v>38.167275362176</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42.77347334975585</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.444722986545557</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31.93736039915249</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56.23121975155479</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8525599142453952</v>
+      </c>
+      <c r="C55" t="n">
+        <v>30.5496117060696</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64.95398131550566</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6.245178837582468</v>
+      </c>
+      <c r="C56" t="n">
+        <v>40.37110635463252</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29.05394731702572</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.541381801145572</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26.54704713849982</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>41.69158870298612</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2.856792010128415</v>
+      </c>
+      <c r="C58" t="n">
+        <v>20.93803752401018</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>72.58472172609484</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.413911787609462</v>
+      </c>
+      <c r="C59" t="n">
+        <v>44.54369127896916</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>48.21468423962292</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5.926041377644906</v>
+      </c>
+      <c r="C60" t="n">
+        <v>32.46984538891866</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>49.3476030051163</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.117633583002223</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28.20765613839442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>43.07035761769712</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.884712288459344</v>
+      </c>
+      <c r="C62" t="n">
+        <v>45.75250996118125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54.30017614508419</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.75490811343396</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38.12078718348317</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>40.19965140019792</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6.920229218408225</v>
+      </c>
+      <c r="C64" t="n">
+        <v>29.08702137199234</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59.68737761621017</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.165468586029089</v>
+      </c>
+      <c r="C65" t="n">
+        <v>47.54920967512413</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56.9101725195343</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.567005425595422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>46.14182581047825</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28.42004854161138</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.245985827656593</v>
+      </c>
+      <c r="C67" t="n">
+        <v>28.59801383230481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>29.91443836576689</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5.22870638802549</v>
+      </c>
+      <c r="C68" t="n">
+        <v>28.0696355057548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>47.27719832479038</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.385749977124675</v>
+      </c>
+      <c r="C69" t="n">
+        <v>24.93685393052138</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>46.4568734718877</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.703546213132618</v>
+      </c>
+      <c r="C70" t="n">
+        <v>30.82364239728969</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>77.94837445570991</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5.571068284195379</v>
+      </c>
+      <c r="C71" t="n">
+        <v>54.69185767244987</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>49.37017053074672</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.750874186952427</v>
+      </c>
+      <c r="C72" t="n">
+        <v>39.46400881967291</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>70.15707805216016</v>
+      </c>
+      <c r="B73" t="n">
+        <v>7.066612148183602</v>
+      </c>
+      <c r="C73" t="n">
+        <v>46.59888026152885</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>44.87083421103838</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5.420724121811442</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25.68236947478825</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51.94709289347985</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4.01203107237737</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40.14982447945215</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>67.50923414406466</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.205609910459565</v>
+      </c>
+      <c r="C76" t="n">
+        <v>43.31881079947735</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45.91796600194844</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.902185685381813</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22.87978778424866</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>61.69662486688196</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.224828445496677</v>
+      </c>
+      <c r="C78" t="n">
+        <v>47.25953338452061</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>76.12643902782409</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6.083439768659484</v>
+      </c>
+      <c r="C79" t="n">
+        <v>52.90693067748254</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>50.99855277828784</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.615120327609596</v>
+      </c>
+      <c r="C80" t="n">
+        <v>34.91677285269112</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57.44417988828434</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.198913192642994</v>
+      </c>
+      <c r="C81" t="n">
+        <v>40.46630934971284</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54.37332175418816</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.959486148426475</v>
+      </c>
+      <c r="C82" t="n">
+        <v>47.2408263049417</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56.84683165085941</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.006594326221926</v>
+      </c>
+      <c r="C83" t="n">
+        <v>36.55370878397161</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59.71950197378638</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.117122575365355</v>
+      </c>
+      <c r="C84" t="n">
+        <v>44.06378873956181</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42.92493540227922</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.801629873017461</v>
+      </c>
+      <c r="C85" t="n">
+        <v>42.64896868042564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54.70429435828415</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.727399548569855</v>
+      </c>
+      <c r="C86" t="n">
+        <v>28.43810857677836</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57.76013792308875</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2.765357835075756</v>
+      </c>
+      <c r="C87" t="n">
+        <v>31.39975502210438</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62.00035154394202</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.112620350351635</v>
+      </c>
+      <c r="C88" t="n">
+        <v>41.9865648864503</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59.2688382897402</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.968222114859756</v>
+      </c>
+      <c r="C89" t="n">
+        <v>39.60371281827089</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52.10129283020612</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.169161767169409</v>
+      </c>
+      <c r="C90" t="n">
+        <v>29.95782147415711</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60.07533835718879</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.301350861766775</v>
+      </c>
+      <c r="C91" t="n">
+        <v>45.37558593211872</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38.94452326412917</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.650472007228182</v>
+      </c>
+      <c r="C92" t="n">
+        <v>37.05945582869744</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57.71948955391915</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.42464727743037</v>
+      </c>
+      <c r="C93" t="n">
+        <v>27.2988325881389</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63.68015352773017</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.499264182517176</v>
+      </c>
+      <c r="C94" t="n">
+        <v>39.44811786517701</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>48.82330562797564</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.194011204578814</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26.34274544361619</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>50.84801148942994</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.043509757199989</v>
+      </c>
+      <c r="C96" t="n">
+        <v>34.59971094707981</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51.97890848990383</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.941659381458688</v>
+      </c>
+      <c r="C97" t="n">
+        <v>38.89904614895696</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>47.01514688473101</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.310475117493642</v>
+      </c>
+      <c r="C98" t="n">
+        <v>26.192372006835</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>41.66005175908954</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.647883210684987</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33.11233087012821</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34.31380861405506</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.093900550094501</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30.17496803168105</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>44.63753784908205</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.196285810524341</v>
+      </c>
+      <c r="C101" t="n">
+        <v>36.67302270417498</v>
       </c>
     </row>
   </sheetData>
